--- a/static/atualizacoes/vendas1.xlsx
+++ b/static/atualizacoes/vendas1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,12 +491,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/06/2024 22:27</t>
+          <t>11/06/2024 22:31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>117.40</t>
+          <t>250.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>7.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>113.70</t>
+          <t>242.59</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -530,11 +530,11 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>24162126004434300000000002000</t>
+          <t>24163513008447700000000003000</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/06/2024 22:27</t>
+          <t>11/06/2024 22:19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>117.40</t>
+          <t>294.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>113.70</t>
+          <t>284.07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,11 +583,11 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>24162518007440900000000001000</t>
+          <t>416313238100714</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/06/2024 22:14</t>
+          <t>11/06/2024 22:14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>281.38</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>272.52</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>435974</v>
+        <v>435992</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>24162126004434300000000001000</t>
+          <t>24163121004988600000000001000</t>
         </is>
       </c>
     </row>
@@ -650,37 +650,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/06/2024 21:31</t>
+          <t>11/06/2024 22:06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>227.48</t>
+          <t>284.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>225.55</t>
+          <t>276.03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -689,11 +689,11 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>24162117005119300000000001000</t>
+          <t>24163513008447700000000002000</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10/06/2024 21:13</t>
+          <t>11/06/2024 22:02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -718,12 +718,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>51.50</t>
+          <t>77.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>49.88</t>
+          <t>74.66</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>24162517018852100000000004000</t>
+          <t>24163121004988500000000001000</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/06/2024 21:12</t>
+          <t>11/06/2024 21:52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>51.50</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>49.88</t>
+          <t>77.57</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -795,11 +795,11 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>24162517018852100000000003000</t>
+          <t>24163513008447700000000001000</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/06/2024 20:58</t>
+          <t>11/06/2024 21:52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -819,27 +819,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>167.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>19.83</t>
+          <t>162.73</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>24162504027996600000000003000</t>
+          <t>24163512020362500000000002000</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/06/2024 20:57</t>
+          <t>11/06/2024 21:43</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -877,22 +877,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>286.80</t>
+          <t>130.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>284.36</t>
+          <t>128.89</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>24162504027996500000000003000</t>
+          <t>24163111014382900000000001000</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/06/2024 20:47</t>
+          <t>11/06/2024 21:43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>369.27</t>
+          <t>130.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>357.64</t>
+          <t>128.89</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>24162517018852100000000002000</t>
+          <t>24163509029033300000000002000</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/06/2024 20:42</t>
+          <t>11/06/2024 21:14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -983,22 +983,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>135.38</t>
+          <t>262.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>134.23</t>
+          <t>260.57</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1007,11 +1007,11 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>24162504027996700000000003000</t>
+          <t>24163509029033500000000001000</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/06/2024 20:42</t>
+          <t>11/06/2024 20:52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1031,27 +1031,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>135.00</t>
+          <t>214.28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>133.85</t>
+          <t>207.77</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1060,11 +1060,11 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>24162504027996500000000002000</t>
+          <t>24163512020362500000000001000</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/06/2024 20:36</t>
+          <t>11/06/2024 20:45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Elo</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>105.50</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>101.35</t>
+          <t>19.39</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1113,11 +1113,11 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>24162517018852400000000002000</t>
+          <t>24163120013153600000000003000</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/06/2024 20:33</t>
+          <t>11/06/2024 20:42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>136.10</t>
+          <t>16.90</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>134.94</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1166,11 +1166,11 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>24162116013803800000000002000</t>
+          <t>24163111014383000000000002000</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1180,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/06/2024 20:15</t>
+          <t>11/06/2024 20:35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Elo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pré-pago débito</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>16.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>66.93</t>
+          <t>16.66</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1219,11 +1219,11 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24162504027996800000000001000</t>
+          <t>24163509029033400000000001000</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/06/2024 20:05</t>
+          <t>11/06/2024 20:17</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1243,27 +1243,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31.90</t>
+          <t>327.70</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31.63</t>
+          <t>317.74</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>24162116013803800000000001000</t>
+          <t>24163120013153500000000001000</t>
         </is>
       </c>
     </row>
@@ -1286,27 +1286,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/06/2024 20:03</t>
+          <t>11/06/2024 20:16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Elo</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33.90</t>
+          <t>259.69</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>32.57</t>
+          <t>257.48</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1325,11 +1325,11 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24162517018852400000000001000</t>
+          <t>24163111014383000000000001000</t>
         </is>
       </c>
     </row>
@@ -1339,37 +1339,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10/06/2024 19:55</t>
+          <t>11/06/2024 19:59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>20.36</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1378,11 +1378,11 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24162504027996600000000002000</t>
+          <t>24163120013153600000000002000</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/06/2024 19:51</t>
+          <t>11/06/2024 19:41</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>47.87</t>
+          <t>59.60</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>46.36</t>
+          <t>57.79</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1431,11 +1431,11 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>24162517018852200000000001000</t>
+          <t>24163512020362600000000001000</t>
         </is>
       </c>
     </row>
@@ -1445,37 +1445,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/06/2024 19:36</t>
+          <t>11/06/2024 19:11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>242.00</t>
+          <t>217.70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>239.94</t>
+          <t>211.08</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1484,11 +1484,11 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>435974</v>
+        <v>435992</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>24162504027996500000000001000</t>
+          <t>24163120013153600000000001000</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/06/2024 19:31</t>
+          <t>11/06/2024 18:54</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1508,27 +1508,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pré-pago débito</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>220.00</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>218.13</t>
+          <t>109.06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1537,11 +1537,11 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>24162504027996700000000002000</t>
+          <t>24163509029033300000000001000</t>
         </is>
       </c>
     </row>
@@ -1551,37 +1551,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/06/2024 19:30</t>
+          <t>11/06/2024 18:28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pré-pago débito</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>53.70</t>
+          <t>35.80</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>53.24</t>
+          <t>34.71</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>24162504027996700000000001000</t>
+          <t>24163129019928700000000002000</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10/06/2024 19:29</t>
+          <t>11/06/2024 18:02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1614,17 +1614,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>51.20</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>49.59</t>
+          <t>67.22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24162517018852100000000001000</t>
+          <t>24163508042850200000000001000</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10/06/2024 19:23</t>
+          <t>11/06/2024 18:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1667,17 +1667,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>101.00</t>
+          <t>96.36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>97.82</t>
+          <t>95.54</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1696,11 +1696,11 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24162125012059200000000002000</t>
+          <t>24163110021762900000000001000</t>
         </is>
       </c>
     </row>
@@ -1710,12 +1710,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/06/2024 19:03</t>
+          <t>11/06/2024 17:56</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.70</t>
+          <t>162.80</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>37.48</t>
+          <t>157.85</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1749,11 +1749,11 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>24162125012059200000000001000</t>
+          <t>24163511030945600000000001000</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10/06/2024 18:56</t>
+          <t>11/06/2024 17:51</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elo</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>101.90</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>75.90</t>
+          <t>98.80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1802,11 +1802,11 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>24162517018852300000000001000</t>
+          <t>24163129019928700000000001000</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/06/2024 18:26</t>
+          <t>11/06/2024 17:49</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1855,11 +1855,11 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>24162504027996600000000001000</t>
+          <t>24163110021762800000000003000</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/06/2024 18:14</t>
+          <t>11/06/2024 17:42</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>97.30</t>
+          <t>35.30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>34.23</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1908,11 +1908,11 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>24162124018868000000000005000</t>
+          <t>24163511030945500000000002000</t>
         </is>
       </c>
     </row>
@@ -1922,37 +1922,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/06/2024 18:13</t>
+          <t>11/06/2024 17:33</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>33.80</t>
+          <t>16.90</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33.51</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1961,11 +1961,11 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>24162503043089600000000003000</t>
+          <t>24163129019928600000000001000</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10/06/2024 18:07</t>
+          <t>11/06/2024 17:14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1990,12 +1990,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>46.20</t>
+          <t>77.30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>44.74</t>
+          <t>74.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2014,11 +2014,11 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>24162516029302100000000004000</t>
+          <t>24163511030945500000000001000</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/06/2024 18:05</t>
+          <t>11/06/2024 17:05</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2043,22 +2043,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>65.80</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>65.24</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2067,11 +2067,11 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>24162115021838000000000003000</t>
+          <t>24163110021762800000000002000</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10/06/2024 17:59</t>
+          <t>11/06/2024 17:04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2091,17 +2091,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>64.60</t>
+          <t>67.22</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2120,11 +2120,11 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>24162516029302100000000003000</t>
+          <t>24163508042850100000000002000</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10/06/2024 17:55</t>
+          <t>11/06/2024 16:47</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>126.80</t>
+          <t>58.20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>122.81</t>
+          <t>57.71</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2173,11 +2173,11 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24162124018868000000000004000</t>
+          <t>24163110021762800000000001000</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10/06/2024 17:52</t>
+          <t>11/06/2024 16:35</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>72.68</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>16.37</t>
+          <t>72.06</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2226,11 +2226,11 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>435976</v>
+        <v>435974</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24162516029302100000000002000</t>
+          <t>24163508042850100000000001000</t>
         </is>
       </c>
     </row>
@@ -2240,27 +2240,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10/06/2024 17:52</t>
+          <t>11/06/2024 16:19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Elo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>33.80</t>
+          <t>128.60</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>126.79</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>24162516029302100000000001000</t>
+          <t>24163508042850300000000001000</t>
         </is>
       </c>
     </row>
@@ -2293,27 +2293,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/06/2024 17:51</t>
+          <t>11/06/2024 16:09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>58.72</t>
+          <t>65.80</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>56.87</t>
+          <t>65.24</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>24162124018868000000000003000</t>
+          <t>24163507055770500000000003000</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/06/2024 17:50</t>
+          <t>11/06/2024 16:08</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>42.70</t>
+          <t>113.45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>41.35</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>24162124018868000000000002000</t>
+          <t>24163128027032900000000003000</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/06/2024 17:41</t>
+          <t>11/06/2024 16:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2409,27 +2409,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>35.30</t>
+          <t>40.30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>39.07</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>24162503043089600000000002000</t>
+          <t>24163510041550200000000004000</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2452,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/06/2024 17:23</t>
+          <t>11/06/2024 15:49</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>American Express</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>720.00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>24.41</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>67.70</t>
+          <t>695.59</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>24162124018868000000000001000</t>
+          <t>416315270981974</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10/06/2024 17:19</t>
+          <t>11/06/2024 15:36</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2520,22 +2520,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>42.70</t>
+          <t>64.60</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>42.34</t>
+          <t>64.05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>24162115021838000000000002000</t>
+          <t>24163119028589200000000003000</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10/06/2024 16:59</t>
+          <t>11/06/2024 15:32</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2568,27 +2568,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>104.80</t>
+          <t>102.90</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>103.91</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2597,11 +2597,11 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>24162115021838000000000001000</t>
+          <t>24163129019928800000000001000</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/06/2024 16:21</t>
+          <t>11/06/2024 15:29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2621,27 +2621,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>64.59</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>64.04</t>
+          <t>90.56</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2650,11 +2650,11 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>24162503043089600000000001000</t>
+          <t>24163510041550300000000002000</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10/06/2024 15:47</t>
+          <t>11/06/2024 15:28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2679,12 +2679,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>29.80</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>28.86</t>
+          <t>90.56</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2703,11 +2703,11 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>435976</v>
+        <v>435992</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>24162123025517300000000001000</t>
+          <t>24163128027033000000000001000</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10/06/2024 14:51</t>
+          <t>11/06/2024 15:18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2732,22 +2732,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>215.00</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>213.17</t>
+          <t>66.13</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2756,11 +2756,11 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>24162114028315700000000003000</t>
+          <t>24163119028589200000000002000</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10/06/2024 14:45</t>
+          <t>11/06/2024 15:17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2785,12 +2785,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>109.89</t>
+          <t>32.80</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>106.43</t>
+          <t>31.80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2809,11 +2809,11 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>435992</v>
+        <v>435976</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24162515039430800000000004000</t>
+          <t>24163510041550200000000003000</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10/06/2024 14:35</t>
+          <t>11/06/2024 15:16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>43.90</t>
+          <t>25.80</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>42.52</t>
+          <t>25.02</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2862,11 +2862,11 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>24162123025517200000000003000</t>
+          <t>24163510041550200000000002000</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10/06/2024 14:33</t>
+          <t>11/06/2024 14:58</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2891,12 +2891,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>49.20</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>47.65</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2915,11 +2915,11 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>24162515039430700000000003000</t>
+          <t>24163128027032900000000002000</t>
         </is>
       </c>
     </row>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10/06/2024 14:30</t>
+          <t>11/06/2024 14:39</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Elo</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>37.40</t>
+          <t>158.90</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>36.22</t>
+          <t>153.51</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2968,11 +2968,11 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>435974</v>
+        <v>435992</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>24162515039430700000000002000</t>
+          <t>24163510041550500000000001000</t>
         </is>
       </c>
     </row>
@@ -2982,12 +2982,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10/06/2024 14:28</t>
+          <t>11/06/2024 14:28</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Elo</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>58.30</t>
+          <t>16.90</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>56.01</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>24162515039430900000000001000</t>
+          <t>24163510041550100000000005000</t>
         </is>
       </c>
     </row>
@@ -3035,37 +3035,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10/06/2024 14:16</t>
+          <t>11/06/2024 14:27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>417.67</t>
+          <t>96.40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>414.12</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3074,11 +3074,11 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>24162114028315800000000003000</t>
+          <t>24163510041550100000000004000</t>
         </is>
       </c>
     </row>
@@ -3088,37 +3088,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10/06/2024 14:08</t>
+          <t>11/06/2024 13:57</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>42.13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>40.85</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3127,11 +3127,11 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>435974</v>
+        <v>435992</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>24162114028315700000000002000</t>
+          <t>24163510041550300000000001000</t>
         </is>
       </c>
     </row>
@@ -3141,27 +3141,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10/06/2024 14:07</t>
+          <t>11/06/2024 13:45</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>31.90</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>30.90</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3180,11 +3180,11 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>24162123025517200000000002000</t>
+          <t>24163507055770500000000002000</t>
         </is>
       </c>
     </row>
@@ -3194,12 +3194,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10/06/2024 14:05</t>
+          <t>11/06/2024 13:45</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3209,22 +3209,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>26.90</t>
+          <t>49.30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>48.88</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3233,11 +3233,11 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>435974</v>
+        <v>435992</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>24162502055255900000000005000</t>
+          <t>24163119028589300000000001000</t>
         </is>
       </c>
     </row>
@@ -3247,27 +3247,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10/06/2024 13:57</t>
+          <t>11/06/2024 13:42</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>122.40</t>
+          <t>41.23</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>118.54</t>
+          <t>40.88</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3286,11 +3286,11 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>24162515039430800000000003000</t>
+          <t>24163119028589100000000006000</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10/06/2024 13:57</t>
+          <t>11/06/2024 13:41</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3310,17 +3310,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>122.40</t>
+          <t>41.23</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>118.54</t>
+          <t>40.88</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3339,11 +3339,11 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>24162123025517400000000005000</t>
+          <t>24163119028589100000000005000</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3353,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10/06/2024 13:57</t>
+          <t>11/06/2024 13:29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Elo</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3368,12 +3368,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>122.40</t>
+          <t>157.25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>118.54</t>
+          <t>151.92</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3392,11 +3392,11 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>435992</v>
+        <v>435976</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>24162123025517400000000004000</t>
+          <t>24163510041550400000000002000</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10/06/2024 13:57</t>
+          <t>11/06/2024 13:29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>122.40</t>
+          <t>183.70</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>118.54</t>
+          <t>182.14</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3445,11 +3445,11 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>24162515039430800000000002000</t>
+          <t>24163119028589100000000004000</t>
         </is>
       </c>
     </row>
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10/06/2024 13:56</t>
+          <t>11/06/2024 13:29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3474,22 +3474,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>122.40</t>
+          <t>157.25</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>121.36</t>
+          <t>155.91</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3498,11 +3498,11 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>435992</v>
+        <v>435976</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>24162502055256000000000002000</t>
+          <t>24163119028589200000000001000</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10/06/2024 13:48</t>
+          <t>11/06/2024 13:28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3522,27 +3522,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>118.00</t>
+          <t>157.25</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>117.00</t>
+          <t>152.47</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3551,11 +3551,11 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>435992</v>
+        <v>435976</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>24162114028315800000000002000</t>
+          <t>24163128027032900000000001000</t>
         </is>
       </c>
     </row>
@@ -3565,27 +3565,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10/06/2024 13:47</t>
+          <t>11/06/2024 13:28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>352.00</t>
+          <t>157.25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>340.91</t>
+          <t>155.91</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3604,11 +3604,11 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>435992</v>
+        <v>435976</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>24162123025517400000000003000</t>
+          <t>24163507055770500000000001000</t>
         </is>
       </c>
     </row>
@@ -3618,27 +3618,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10/06/2024 13:18</t>
+          <t>11/06/2024 13:23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>116.35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>106.53</t>
+          <t>115.36</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>24162515039430800000000001000</t>
+          <t>24163119028589100000000003000</t>
         </is>
       </c>
     </row>
@@ -3671,37 +3671,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10/06/2024 13:18</t>
+          <t>11/06/2024 13:23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Pré-pago débito</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>116.35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>109.06</t>
+          <t>112.81</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3710,11 +3710,11 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>24162502055256300000000001000</t>
+          <t>24163128027032800000000003000</t>
         </is>
       </c>
     </row>
@@ -3724,37 +3724,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10/06/2024 12:48</t>
+          <t>11/06/2024 13:23</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>468.30</t>
+          <t>116.35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>464.32</t>
+          <t>112.81</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3763,11 +3763,11 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>24162502055256000000000001000</t>
+          <t>24163128027032800000000002000</t>
         </is>
       </c>
     </row>
@@ -3777,37 +3777,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10/06/2024 12:47</t>
+          <t>11/06/2024 13:13</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Pré-pago débito</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>35.80</t>
+          <t>317.50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>35.50</t>
+          <t>307.85</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>24162502055256200000000002000</t>
+          <t>24163128027032800000000001000</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10/06/2024 12:43</t>
+          <t>11/06/2024 13:09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Elo</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>27.41</t>
+          <t>33.80</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3869,11 +3869,11 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>24162123025517200000000001000</t>
+          <t>24163510041550400000000001000</t>
         </is>
       </c>
     </row>
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10/06/2024 12:40</t>
+          <t>11/06/2024 13:06</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>59.70</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>135.59</t>
+          <t>57.89</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3922,11 +3922,11 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>24162123025517400000000002000</t>
+          <t>24163510041550100000000003000</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10/06/2024 12:37</t>
+          <t>11/06/2024 12:51</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>42.30</t>
+          <t>242.00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>40.97</t>
+          <t>234.64</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>24162515039430700000000001000</t>
+          <t>24163510041550100000000002000</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10/06/2024 12:35</t>
+          <t>11/06/2024 12:50</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4004,22 +4004,22 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>100.40</t>
+          <t>138.60</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>136.65</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4028,11 +4028,11 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>24162502055256100000000001000</t>
+          <t>24163507055770600000000001000</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10/06/2024 12:31</t>
+          <t>11/06/2024 12:50</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4057,22 +4057,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>158.30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>43.63</t>
+          <t>156.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>24162502055255900000000004000</t>
+          <t>24163507055770400000000001000</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10/06/2024 12:27</t>
+          <t>11/06/2024 12:46</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4105,27 +4105,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>221.80</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>215.06</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>24162502055255900000000003000</t>
+          <t>24163510041550100000000001000</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10/06/2024 12:10</t>
+          <t>11/06/2024 12:41</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4158,27 +4158,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>34.80</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>33.74</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4187,11 +4187,11 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>435974</v>
+        <v>435976</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>24162502055255900000000002000</t>
+          <t>24163510041550200000000001000</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10/06/2024 12:09</t>
+          <t>11/06/2024 12:09</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4211,17 +4211,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Crédito à vista</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4240,11 +4240,11 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>435992</v>
+        <v>435974</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>24162123025517400000000001000</t>
+          <t>24163119028589100000000002000</t>
         </is>
       </c>
     </row>
@@ -4254,37 +4254,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10/06/2024 12:07</t>
+          <t>11/06/2024 12:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Pré-pago débito</t>
+          <t>Débito à vista</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>149.60</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>148.33</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>24162502055256200000000001000</t>
+          <t>24163119028589100000000001000</t>
         </is>
       </c>
     </row>
@@ -4307,37 +4307,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10/06/2024 12:06</t>
+          <t>11/06/2024 11:36</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Débito à vista</t>
+          <t>Crédito à vista</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>31.90</t>
+          <t>38.30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>11/06/2024</t>
+          <t>12/06/2024</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>31.63</t>
+          <t>37.14</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4350,272 +4350,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>24162114028315700000000001000</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>10/06/2024 12:01</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Débito à vista</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>11/06/2024</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Máquina</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>435992</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>24162114028315800000000001000</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>10/06/2024 11:28</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Mastercard</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Débito à vista</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>45.80</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>11/06/2024</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>45.41</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Máquina</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>435974</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>24162502055255900000000001000</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>10/06/2024 11:01</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Mastercard</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Crédito à vista</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>12/06/2024</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>19.37</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Máquina</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>435992</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>24162514031753800000000001000</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>10/06/2024 10:58</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Visa</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Débito à vista</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>88.00</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>11/06/2024</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>87.25</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Máquina</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>435992</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>24162113024485500000000001000</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>10/06/2024 09:57</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Elo</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Débito à vista</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>11/06/2024</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Máquina</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>435974</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>24162501046722000000000001000</t>
+          <t>24163519033302400000000001000</t>
         </is>
       </c>
     </row>
